--- a/ocms/src/test/resources/TestData/OCMCallTransferReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMCallTransferReportData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E34A90-00CB-4F75-B1B4-A761926F0290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CB0BC2-8E9E-47F9-A387-9BF356CC0F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="48">
   <si>
     <t>Report Channel</t>
   </si>
@@ -110,10 +110,28 @@
     <t>Deleted</t>
   </si>
   <si>
+    <t>18-06-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>15-06-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>19-06-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>40026</t>
+  </si>
+  <si>
+    <t>10000001841592198731</t>
+  </si>
+  <si>
     <t>OCM Call Transfer Report</t>
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>01-06-2020 00:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">Select [UCID] ,[CallerID] as [Caller ID], [UserID] as [User ID],
@@ -133,25 +151,34 @@
     <t>Last Menu</t>
   </si>
   <si>
-    <t>16-03-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>30-04-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>18-03-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>18-03-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>40004</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>10000001831615954238</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Is not equal to</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -483,7 +510,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,13 +540,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -532,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,16 +613,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -607,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
         <v>26</v>
@@ -618,16 +645,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -639,7 +666,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -647,28 +674,28 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>33</v>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -676,16 +703,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>33</v>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -697,7 +724,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -705,28 +732,28 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -734,16 +761,16 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -755,7 +782,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +795,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -797,13 +824,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -816,7 +843,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -849,16 +876,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -871,7 +898,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -879,7 +906,7 @@
     <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -901,13 +928,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -920,7 +947,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -957,16 +984,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -979,19 +1006,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A4" sqref="A4:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.453125" customWidth="1"/>
     <col min="2" max="2" width="24.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.81640625" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.453125" customWidth="1"/>
     <col min="8" max="8" width="14.1796875" customWidth="1"/>
     <col min="9" max="9" width="29.81640625" customWidth="1"/>
@@ -1039,16 +1064,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -1060,10 +1085,10 @@
         <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1071,16 +1096,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -1092,10 +1117,155 @@
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1109,7 +1279,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1138,7 +1308,7 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="377" x14ac:dyDescent="0.35">
@@ -1146,19 +1316,19 @@
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
